--- a/Data/CERP_PBC_WQ_Summary_Data.xlsx
+++ b/Data/CERP_PBC_WQ_Summary_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="DO Station" sheetId="1" state="visible" r:id="rId1"/>
@@ -1468,7 +1468,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,22 +1480,31 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <b/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1518,7 +1527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1554,6 +1563,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1860,7 +1870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -4653,10 +4665,10 @@
         <v>4.75</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="Z27" t="n">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AA27" s="2" t="n">
         <v>45819</v>
@@ -4693,7 +4705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
@@ -8019,7 +8031,7 @@
         <v>93.66</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="I25" s="5" t="n">
         <v>87.32</v>
@@ -8121,7 +8133,7 @@
         <v>45756</v>
       </c>
       <c r="AP25" s="5" t="n">
-        <v>74.07</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="AQ25" s="5" t="n">
         <v>25.05</v>
@@ -8398,7 +8410,7 @@
         <v>77.58</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="AR27" t="n">
         <v>60</v>
@@ -19448,7 +19460,7 @@
         <v>5.84</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="AR26" t="n">
         <v>5.63</v>
@@ -19558,7 +19570,7 @@
         <v>0.36</v>
       </c>
       <c r="AH27" t="n">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AI27" t="n">
         <v>4.75</v>
@@ -19567,7 +19579,7 @@
         <v>45819</v>
       </c>
       <c r="AK27" t="n">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="AL27" t="n">
         <v>0.91</v>
@@ -26704,8 +26716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -29234,7 +29246,7 @@
         <v>8.36</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="G25" s="9" t="n">
         <v>45755</v>
@@ -29252,13 +29264,13 @@
         <v>45755</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="O25" s="9" t="n">
         <v>45755</v>
@@ -29267,7 +29279,7 @@
         <v>8.24</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R25" s="5" t="n">
         <v>8.18</v>
@@ -29276,10 +29288,10 @@
         <v>45755</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="U25" s="5" t="n">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V25" s="5" t="n">
         <v>8.26</v>
@@ -29303,7 +29315,7 @@
         <v>7.95</v>
       </c>
       <c r="AC25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="AD25" s="5" t="n">
         <v>7.91</v>
@@ -29325,19 +29337,9 @@
       <c r="A26" s="9" t="n">
         <v>45791</v>
       </c>
-      <c r="B26" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="C26" t="n">
-        <v>8.28</v>
-      </c>
       <c r="D26" s="9" t="n">
         <v>45791</v>
       </c>
-      <c r="E26" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F26"/>
       <c r="G26" s="9" t="n">
         <v>45783</v>
       </c>
@@ -29357,7 +29359,7 @@
         <v>8.16</v>
       </c>
       <c r="M26" t="n">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="N26" t="n">
         <v>8.31</v>
@@ -29372,16 +29374,16 @@
         <v>8.27</v>
       </c>
       <c r="R26" t="n">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="S26" s="9" t="n">
         <v>45783</v>
       </c>
       <c r="T26" t="n">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="U26" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="V26" t="n">
         <v>8.25</v>
@@ -29427,13 +29429,9 @@
       <c r="A27" s="9" t="n">
         <v>45825</v>
       </c>
-      <c r="B27"/>
-      <c r="C27"/>
       <c r="D27" s="9" t="n">
         <v>45825</v>
       </c>
-      <c r="E27"/>
-      <c r="F27"/>
       <c r="G27" s="9" t="n">
         <v>45818</v>
       </c>
@@ -29465,10 +29463,10 @@
         <v>8.09</v>
       </c>
       <c r="Q27" t="n">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="R27" t="n">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="S27" s="9" t="n">
         <v>45818</v>
@@ -29477,7 +29475,7 @@
         <v>8.31</v>
       </c>
       <c r="U27" t="n">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V27" t="n">
         <v>8.18</v>
@@ -29498,7 +29496,7 @@
         <v>45819</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.05</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AC27" t="n">
         <v>7.9</v>
@@ -29563,7 +29561,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
@@ -32872,7 +32870,7 @@
         <v>45762</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>8.03</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>0.23</v>
@@ -32896,13 +32894,13 @@
         <v>8.36</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="K25" s="9" t="n">
         <v>45755</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="M25" s="5" t="n">
         <v>0.1</v>
@@ -32917,22 +32915,22 @@
         <v>45755</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="R25" s="5" t="n">
         <v>0.01</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8.12</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="U25" s="9" t="n">
         <v>45755</v>
       </c>
       <c r="V25" s="5" t="n">
-        <v>8.21</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="W25" s="5" t="n">
         <v>0.03</v>
@@ -32953,10 +32951,10 @@
         <v>0.05</v>
       </c>
       <c r="AC25" s="5" t="n">
-        <v>8.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="AD25" s="5" t="n">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AE25" s="9" t="n">
         <v>45756</v>
@@ -32986,7 +32984,7 @@
         <v>7.91</v>
       </c>
       <c r="AN25" s="5" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="AO25" s="9" t="n">
         <v>45756</v>
@@ -32995,7 +32993,7 @@
         <v>8</v>
       </c>
       <c r="AQ25" s="5" t="n">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AR25" s="5" t="n">
         <v>7.93</v>
@@ -33008,36 +33006,14 @@
       <c r="A26" s="9" t="n">
         <v>45791</v>
       </c>
-      <c r="B26" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="D26" t="n">
-        <v>8.19</v>
-      </c>
-      <c r="E26" t="n">
-        <v>8.28</v>
-      </c>
       <c r="F26" s="9" t="n">
         <v>45791</v>
       </c>
-      <c r="G26" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="H26"/>
-      <c r="I26" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="J26" t="n">
-        <v>9.05</v>
-      </c>
       <c r="K26" s="9" t="n">
         <v>45783</v>
       </c>
       <c r="L26" t="n">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="M26" t="n">
         <v>0.09</v>
@@ -33067,7 +33043,7 @@
         <v>45783</v>
       </c>
       <c r="V26" t="n">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="W26" t="n">
         <v>0.02</v>
@@ -33082,16 +33058,16 @@
         <v>45783</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="AB26" t="n">
         <v>0.08</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.13</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.29</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="AE26" s="9" t="n">
         <v>45784</v>
@@ -33143,21 +33119,9 @@
       <c r="A27" s="9" t="n">
         <v>45825</v>
       </c>
-      <c r="B27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
       <c r="F27" s="9" t="n">
         <v>45825</v>
       </c>
-      <c r="G27" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
       <c r="K27" s="9" t="n">
         <v>45818</v>
       </c>
@@ -33180,7 +33144,7 @@
         <v>8.56</v>
       </c>
       <c r="R27" t="n">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S27" t="n">
         <v>8.36</v>
@@ -33198,7 +33162,7 @@
         <v>0.03</v>
       </c>
       <c r="X27" t="n">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="Y27" t="n">
         <v>8.09</v>
@@ -33210,7 +33174,7 @@
         <v>8.23</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC27" t="n">
         <v>8.18</v>
@@ -33237,10 +33201,10 @@
         <v>45819</v>
       </c>
       <c r="AK27" t="n">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="AM27" t="n">
         <v>7.9</v>
@@ -35897,13 +35861,13 @@
         <v>18</v>
       </c>
       <c r="Z25" s="5" t="n">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AA25" s="9" t="n">
         <v>45756</v>
       </c>
       <c r="AB25" s="5" t="n">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AC25" s="5" t="n">
         <v>11.38</v>
@@ -35953,7 +35917,7 @@
         <v>37.85</v>
       </c>
       <c r="J26" t="n">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K26" s="9" t="n">
         <v>45783</v>
@@ -35986,10 +35950,10 @@
         <v>36.9</v>
       </c>
       <c r="U26" t="n">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="V26" t="n">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="W26" s="9" t="n">
         <v>45784</v>
@@ -36025,7 +35989,7 @@
         <v>23.73</v>
       </c>
       <c r="AH26" t="n">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="27">
@@ -36105,13 +36069,13 @@
         <v>18</v>
       </c>
       <c r="Z27" t="n">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AA27" s="9" t="n">
         <v>45756</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AC27" t="n">
         <v>11.38</v>
@@ -36161,7 +36125,7 @@
         <v>37.85</v>
       </c>
       <c r="J28" t="n">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K28" s="9" t="n">
         <v>45783</v>
@@ -36194,10 +36158,10 @@
         <v>36.9</v>
       </c>
       <c r="U28" t="n">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="V28" t="n">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="W28" s="9" t="n">
         <v>45784</v>
@@ -36233,7 +36197,7 @@
         <v>23.73</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="29">
@@ -36286,7 +36250,7 @@
         <v>17.02</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.06</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>12.88</v>
@@ -36331,7 +36295,7 @@
         <v>45819</v>
       </c>
       <c r="AF29" t="n">
-        <v>18.74</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="AG29" t="n">
         <v>15.8</v>
@@ -36417,13 +36381,13 @@
         <v>18</v>
       </c>
       <c r="Z30" t="n">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AA30" s="9" t="n">
         <v>45756</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AC30" t="n">
         <v>11.38</v>
@@ -36473,7 +36437,7 @@
         <v>37.85</v>
       </c>
       <c r="J31" t="n">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>45783</v>
@@ -36506,10 +36470,10 @@
         <v>36.9</v>
       </c>
       <c r="U31" t="n">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="V31" t="n">
-        <v>36.02</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="W31" s="2" t="n">
         <v>45784</v>
@@ -36545,7 +36509,7 @@
         <v>23.73</v>
       </c>
       <c r="AH31" t="n">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
     </row>
     <row r="32">
@@ -36598,7 +36562,7 @@
         <v>17.02</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.06</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="R32" t="n">
         <v>12.88</v>
@@ -36643,12 +36607,948 @@
         <v>45819</v>
       </c>
       <c r="AF32" t="n">
-        <v>18.74</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="AG32" t="n">
         <v>15.8</v>
       </c>
       <c r="AH32" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B33" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C33" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="E33" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="H33" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I33" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="J33" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="L33" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="M33" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="N33" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="O33" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="P33" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="R33" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="T33" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="U33" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="V33" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="W33" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="X33" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AA33" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AE33" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="E34" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="F34" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="H34" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="I34" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="J34" t="n">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="L34" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="M34" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="N34" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="O34" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="R34" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="T34" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="U34" t="n">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="V34" t="n">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="W34" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="X34" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B35" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E35" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="F35" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="H35" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="I35" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J35" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="L35" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="M35" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="N35" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="P35" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="R35" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="T35" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="U35" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="V35" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="X35" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="AE35" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B36" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="E36" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="H36" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I36" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="J36" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="L36" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="M36" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="N36" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="O36" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="P36" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="S36" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="T36" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="U36" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="V36" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="W36" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="X36" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B37" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="C37" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="E37" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="F37" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="H37" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="I37" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="J37" t="n">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="L37" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="M37" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="N37" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="O37" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="R37" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="S37" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="T37" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="U37" t="n">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="V37" t="n">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="W37" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="X37" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AA37" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="AE37" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>18.989999999999998</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C38" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E38" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="F38" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="H38" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="I38" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="L38" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="M38" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="N38" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="O38" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="P38" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>19.059999999999999</v>
+      </c>
+      <c r="R38" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="S38" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="T38" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="U38" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="V38" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="W38" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="X38" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="AA38" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="AE38" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>14.14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B39" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>20.82</v>
+      </c>
+      <c r="D39" s="13" t="n">
+        <v>45762</v>
+      </c>
+      <c r="E39" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="F39" t="n">
+        <v>32.08</v>
+      </c>
+      <c r="G39" s="13" t="n">
+        <v>45755</v>
+      </c>
+      <c r="H39" t="n">
+        <v>35.26</v>
+      </c>
+      <c r="I39" t="n">
+        <v>35.32</v>
+      </c>
+      <c r="J39" t="n">
+        <v>35.92</v>
+      </c>
+      <c r="K39" s="13" t="n">
+        <v>45755</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="M39" t="n">
+        <v>35.33</v>
+      </c>
+      <c r="N39" t="n">
+        <v>34.72</v>
+      </c>
+      <c r="O39" s="13" t="n">
+        <v>45755</v>
+      </c>
+      <c r="P39" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>24.73</v>
+      </c>
+      <c r="R39" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="S39" s="13" t="n">
+        <v>45755</v>
+      </c>
+      <c r="T39" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="U39" t="n">
+        <v>27.03</v>
+      </c>
+      <c r="V39" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="W39" s="13" t="n">
+        <v>45756</v>
+      </c>
+      <c r="X39" t="n">
+        <v>16.28</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>19.42</v>
+      </c>
+      <c r="AA39" s="13" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>8.55</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="AE39" s="13" t="n">
+        <v>45756</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="13" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B40" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="C40" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="D40" s="13" t="n">
+        <v>45791</v>
+      </c>
+      <c r="E40" t="n">
+        <v>32.93</v>
+      </c>
+      <c r="F40" t="n">
+        <v>36.39</v>
+      </c>
+      <c r="G40" s="13" t="n">
+        <v>45783</v>
+      </c>
+      <c r="H40" t="n">
+        <v>37.94</v>
+      </c>
+      <c r="I40" t="n">
+        <v>37.85</v>
+      </c>
+      <c r="J40" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="K40" s="13" t="n">
+        <v>45783</v>
+      </c>
+      <c r="L40" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="M40" t="n">
+        <v>37.82</v>
+      </c>
+      <c r="N40" t="n">
+        <v>37.72</v>
+      </c>
+      <c r="O40" s="13" t="n">
+        <v>45783</v>
+      </c>
+      <c r="P40" t="n">
+        <v>30.39</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="S40" s="13" t="n">
+        <v>45783</v>
+      </c>
+      <c r="T40" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="U40" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="V40" t="n">
+        <v>36.02</v>
+      </c>
+      <c r="W40" s="13" t="n">
+        <v>45784</v>
+      </c>
+      <c r="X40" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>28.29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>28.09</v>
+      </c>
+      <c r="AA40" s="13" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="AE40" s="13" t="n">
+        <v>45784</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>23.73</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="13" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B41" t="n">
+        <v>22.84</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25.85</v>
+      </c>
+      <c r="D41" s="13" t="n">
+        <v>45825</v>
+      </c>
+      <c r="E41" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="F41" t="n">
+        <v>33.21</v>
+      </c>
+      <c r="G41" s="13" t="n">
+        <v>45818</v>
+      </c>
+      <c r="H41" t="n">
+        <v>32.74</v>
+      </c>
+      <c r="I41" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="J41" t="n">
+        <v>35.72</v>
+      </c>
+      <c r="K41" s="13" t="n">
+        <v>45818</v>
+      </c>
+      <c r="L41" t="n">
+        <v>33.83</v>
+      </c>
+      <c r="M41" t="n">
+        <v>34.47</v>
+      </c>
+      <c r="N41" t="n">
+        <v>33.03</v>
+      </c>
+      <c r="O41" s="13" t="n">
+        <v>45818</v>
+      </c>
+      <c r="P41" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>19.06</v>
+      </c>
+      <c r="R41" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="S41" s="13" t="n">
+        <v>45818</v>
+      </c>
+      <c r="T41" t="n">
+        <v>31.05</v>
+      </c>
+      <c r="U41" t="n">
+        <v>31.01</v>
+      </c>
+      <c r="V41" t="n">
+        <v>31.19</v>
+      </c>
+      <c r="W41" s="13" t="n">
+        <v>45819</v>
+      </c>
+      <c r="X41" t="n">
+        <v>20.71</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>21.53</v>
+      </c>
+      <c r="AA41" s="13" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>18.34</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>12.59</v>
+      </c>
+      <c r="AE41" s="13" t="n">
+        <v>45819</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="AH41" t="n">
         <v>14.14</v>
       </c>
     </row>
@@ -39972,7 +40872,7 @@
         <v>45762</v>
       </c>
       <c r="B25" s="5" t="n">
-        <v>18.81</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="C25" s="5" t="n">
         <v>2.84</v>
@@ -40017,7 +40917,7 @@
         <v>45755</v>
       </c>
       <c r="Q25" s="5" t="n">
-        <v>35.23</v>
+        <v>35.229999999999997</v>
       </c>
       <c r="R25" s="5" t="n">
         <v>0.47</v>
@@ -40062,7 +40962,7 @@
         <v>45756</v>
       </c>
       <c r="AF25" s="5" t="n">
-        <v>17.9</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="AG25" s="5" t="n">
         <v>1.57</v>
@@ -40071,7 +40971,7 @@
         <v>16.28</v>
       </c>
       <c r="AI25" s="5" t="n">
-        <v>19.42</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="AJ25" s="9" t="n">
         <v>45756</v>
@@ -40083,7 +40983,7 @@
         <v>1.46</v>
       </c>
       <c r="AM25" s="5" t="n">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="AN25" s="5" t="n">
         <v>11.38</v>
@@ -40124,10 +41024,10 @@
         <v>45791</v>
       </c>
       <c r="G26" t="n">
-        <v>34.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="H26" t="n">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I26" t="n">
         <v>32.93</v>
@@ -40142,10 +41042,10 @@
         <v>37.86</v>
       </c>
       <c r="M26" t="n">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N26" t="n">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="O26" t="n">
         <v>37.94</v>
@@ -40172,7 +41072,7 @@
         <v>30.23</v>
       </c>
       <c r="W26" t="n">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X26" t="n">
         <v>29.61</v>
@@ -40184,13 +41084,13 @@
         <v>45783</v>
       </c>
       <c r="AA26" t="n">
-        <v>36.27</v>
+        <v>36.270000000000003</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AC26" t="n">
-        <v>35.88</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="AD26" t="n">
         <v>36.9</v>
@@ -40235,7 +41135,7 @@
         <v>3.23</v>
       </c>
       <c r="AR26" t="n">
-        <v>18.99</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AS26" t="n">
         <v>25.16</v>
@@ -40315,7 +41215,7 @@
         <v>12.88</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.06</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="Z27" s="9" t="n">
         <v>45818</v>
@@ -40375,7 +41275,7 @@
         <v>14.14</v>
       </c>
       <c r="AS27" t="n">
-        <v>18.74</v>
+        <v>18.739999999999998</v>
       </c>
     </row>
     <row r="28">

--- a/Data/CERP_PBC_WQ_Summary_Data.xlsx
+++ b/Data/CERP_PBC_WQ_Summary_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\Oyster-Reports\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1237000-8413-4F55-A3DC-BD146807B74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A75B6B5-79CB-4BB7-90BB-D7A4C989FF7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DO Station" sheetId="1" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1577,6 +1577,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26372,7 +26373,7 @@
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A27" sqref="A27:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29093,7 +29094,7 @@
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>45791</v>
       </c>
       <c r="B27">
@@ -29102,10 +29103,13 @@
       <c r="C27">
         <v>8.2799999999999994</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="13">
         <v>45791</v>
       </c>
-      <c r="G27" s="9">
+      <c r="E27">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G27" s="13">
         <v>45783</v>
       </c>
       <c r="H27">
@@ -29117,7 +29121,7 @@
       <c r="J27">
         <v>8.17</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="13">
         <v>45783</v>
       </c>
       <c r="L27">
@@ -29129,7 +29133,7 @@
       <c r="N27">
         <v>8.31</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="13">
         <v>45783</v>
       </c>
       <c r="P27">
@@ -29141,7 +29145,7 @@
       <c r="R27">
         <v>8.3000000000000007</v>
       </c>
-      <c r="S27" s="9">
+      <c r="S27" s="13">
         <v>45783</v>
       </c>
       <c r="T27">
@@ -29153,7 +29157,7 @@
       <c r="V27">
         <v>8.25</v>
       </c>
-      <c r="W27" s="9">
+      <c r="W27" s="13">
         <v>45784</v>
       </c>
       <c r="X27">
@@ -29165,7 +29169,7 @@
       <c r="Z27">
         <v>7.88</v>
       </c>
-      <c r="AA27" s="9">
+      <c r="AA27" s="13">
         <v>45784</v>
       </c>
       <c r="AB27">
@@ -29177,7 +29181,7 @@
       <c r="AD27">
         <v>7.85</v>
       </c>
-      <c r="AE27" s="9">
+      <c r="AE27" s="13">
         <v>45784</v>
       </c>
       <c r="AF27">
@@ -29191,13 +29195,13 @@
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="13">
         <v>45825</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="13">
         <v>45825</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="13">
         <v>45818</v>
       </c>
       <c r="H28">
@@ -29209,7 +29213,7 @@
       <c r="J28">
         <v>8.39</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="13">
         <v>45818</v>
       </c>
       <c r="L28">
@@ -29221,7 +29225,7 @@
       <c r="N28">
         <v>8.89</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="13">
         <v>45818</v>
       </c>
       <c r="P28">
@@ -29233,7 +29237,7 @@
       <c r="R28">
         <v>8.0399999999999991</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="13">
         <v>45818</v>
       </c>
       <c r="T28">
@@ -29245,7 +29249,7 @@
       <c r="V28">
         <v>8.18</v>
       </c>
-      <c r="W28" s="2">
+      <c r="W28" s="13">
         <v>45819</v>
       </c>
       <c r="X28">
@@ -29257,7 +29261,7 @@
       <c r="Z28">
         <v>7.89</v>
       </c>
-      <c r="AA28" s="2">
+      <c r="AA28" s="13">
         <v>45819</v>
       </c>
       <c r="AB28">
@@ -29269,7 +29273,7 @@
       <c r="AD28">
         <v>8.18</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="13">
         <v>45819</v>
       </c>
       <c r="AF28">
@@ -29292,8 +29296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AS28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32872,7 +32876,7 @@
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="A27" s="13">
         <v>45791</v>
       </c>
       <c r="B27">
@@ -32887,10 +32891,19 @@
       <c r="E27">
         <v>8.2799999999999994</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="13">
         <v>45791</v>
       </c>
-      <c r="K27" s="9">
+      <c r="G27">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="I27">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="J27">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="K27" s="13">
         <v>45783</v>
       </c>
       <c r="L27">
@@ -32905,7 +32918,7 @@
       <c r="O27">
         <v>8.32</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="13">
         <v>45783</v>
       </c>
       <c r="Q27">
@@ -32920,7 +32933,7 @@
       <c r="T27">
         <v>8.31</v>
       </c>
-      <c r="U27" s="9">
+      <c r="U27" s="13">
         <v>45783</v>
       </c>
       <c r="V27">
@@ -32935,7 +32948,7 @@
       <c r="Y27">
         <v>8.31</v>
       </c>
-      <c r="Z27" s="9">
+      <c r="Z27" s="13">
         <v>45783</v>
       </c>
       <c r="AA27">
@@ -32950,7 +32963,7 @@
       <c r="AD27">
         <v>8.2899999999999991</v>
       </c>
-      <c r="AE27" s="9">
+      <c r="AE27" s="13">
         <v>45784</v>
       </c>
       <c r="AF27">
@@ -32965,7 +32978,7 @@
       <c r="AI27">
         <v>7.88</v>
       </c>
-      <c r="AJ27" s="9">
+      <c r="AJ27" s="13">
         <v>45784</v>
       </c>
       <c r="AK27">
@@ -32980,7 +32993,7 @@
       <c r="AN27">
         <v>7.99</v>
       </c>
-      <c r="AO27" s="9">
+      <c r="AO27" s="13">
         <v>45784</v>
       </c>
       <c r="AP27">
@@ -32997,13 +33010,13 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="13">
         <v>45825</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="13">
         <v>45825</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="13">
         <v>45818</v>
       </c>
       <c r="L28">
@@ -33018,7 +33031,7 @@
       <c r="O28">
         <v>8.56</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="13">
         <v>45818</v>
       </c>
       <c r="Q28">
@@ -33033,7 +33046,7 @@
       <c r="T28">
         <v>8.89</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="13">
         <v>45818</v>
       </c>
       <c r="V28">
@@ -33048,7 +33061,7 @@
       <c r="Y28">
         <v>8.09</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="Z28" s="13">
         <v>45818</v>
       </c>
       <c r="AA28">
@@ -33063,7 +33076,7 @@
       <c r="AD28">
         <v>8.31</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="13">
         <v>45819</v>
       </c>
       <c r="AF28">
@@ -33078,7 +33091,7 @@
       <c r="AI28">
         <v>8.02</v>
       </c>
-      <c r="AJ28" s="2">
+      <c r="AJ28" s="13">
         <v>45819</v>
       </c>
       <c r="AK28">
@@ -33093,7 +33106,7 @@
       <c r="AN28">
         <v>8.18</v>
       </c>
-      <c r="AO28" s="2">
+      <c r="AO28" s="13">
         <v>45819</v>
       </c>
       <c r="AP28">
@@ -33119,7 +33132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
